--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/NHiTSModel/261023_DF_opt_hyperparam_NHiTSModel_multi-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/NHiTSModel/261023_DF_opt_hyperparam_NHiTSModel_multi-nstep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Bình Phước</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.613682516588559</v>
+        <v>23.30956731805188</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -512,13 +512,85 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2651920978950382</v>
+        <v>0.7754277403987049</v>
       </c>
       <c r="I2" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>An Giang</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N-HiTS</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8.8616383916928</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7208164822702615</v>
+      </c>
+      <c r="I3" t="n">
+        <v>230</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Quảng Ninh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N-HiTS</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3.694380441776066</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3294939458748122</v>
+      </c>
+      <c r="I4" t="n">
+        <v>410</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/NHiTSModel/261023_DF_opt_hyperparam_NHiTSModel_multi-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/NHiTSModel/261023_DF_opt_hyperparam_NHiTSModel_multi-nstep.xlsx
@@ -1,37 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\haha\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4920D5EB-9AE0-4635-B26E-BECC65651EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Alg_name</t>
+  </si>
+  <si>
+    <t>Best_value</t>
+  </si>
+  <si>
+    <t>n_try_opt</t>
+  </si>
+  <si>
+    <t>input_chunk_length</t>
+  </si>
+  <si>
+    <t>output_chunk_length</t>
+  </si>
+  <si>
+    <t>MaxPool1d</t>
+  </si>
+  <si>
+    <t>dropout</t>
+  </si>
+  <si>
+    <t>n_epochs</t>
+  </si>
+  <si>
+    <t>random_state</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>N-HiTS</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>Tiền Giang</t>
+  </si>
+  <si>
+    <t>Tây Ninh</t>
+  </si>
+  <si>
+    <t>Bình Phước</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Phú Yên</t>
+  </si>
+  <si>
+    <t>Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Bình Thuận</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>Trà Vinh</t>
+  </si>
+  <si>
+    <t>Bạc Liêu</t>
+  </si>
+  <si>
+    <t>Cà Mau</t>
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>Sóc Trăng</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +150,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,105 +475,685 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Alg_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Best_value</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>n_try_opt</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>input_chunk_length</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>output_chunk_length</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MaxPool1d</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>dropout</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>n_epochs</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>random_state</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>An Giang</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>N-HiTS</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9.613682516588559</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>3.3290146868448161</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>6</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2651920978950382</v>
-      </c>
-      <c r="I2" t="n">
-        <v>190</v>
-      </c>
-      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.2328416794687562</v>
+      </c>
+      <c r="I2">
+        <v>150</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.7285150649491926</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.38929998657407822</v>
+      </c>
+      <c r="I3">
+        <v>470</v>
+      </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0.8156039406255392</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.1465919728915577</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1.303808138380502</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.4834948081942575</v>
+      </c>
+      <c r="I5">
+        <v>130</v>
+      </c>
+      <c r="J5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>9.2545112549915043</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.33785986595960038</v>
+      </c>
+      <c r="I6">
+        <v>440</v>
+      </c>
+      <c r="J6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>12.84060347477388</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.32768369252963919</v>
+      </c>
+      <c r="I7">
+        <v>360</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>9.5659511491978115</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.65366844081480291</v>
+      </c>
+      <c r="I8">
+        <v>450</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>20.541320836495601</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>7.2833815598199722E-2</v>
+      </c>
+      <c r="I9">
+        <v>450</v>
+      </c>
+      <c r="J9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0.29349405120674721</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.66345755405286067</v>
+      </c>
+      <c r="I10">
+        <v>410</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>4.8575245409972938</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.31844323495351812</v>
+      </c>
+      <c r="I11">
+        <v>380</v>
+      </c>
+      <c r="J11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>23.99149859404395</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.10380408478123911</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>31.007735617188029</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0.58401275007169406</v>
+      </c>
+      <c r="I13">
+        <v>140</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>15.371775200299849</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.74781802617163362</v>
+      </c>
+      <c r="I14">
+        <v>110</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>5.5965846963454418</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.70473734338927507</v>
+      </c>
+      <c r="I15">
+        <v>490</v>
+      </c>
+      <c r="J15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>4.1750654088588428</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.64434208527158976</v>
+      </c>
+      <c r="I16">
+        <v>240</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>13.710885703880299</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.43424671791973041</v>
+      </c>
+      <c r="I17">
+        <v>160</v>
+      </c>
+      <c r="J17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.9593107787230792</v>
+      </c>
+      <c r="D18" s="2">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.74286782354697678</v>
+      </c>
+      <c r="I18" s="2">
+        <v>390</v>
+      </c>
+      <c r="J18" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>28.80205445924781</v>
+      </c>
+      <c r="D19" s="2">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.14386332730531851</v>
+      </c>
+      <c r="I19" s="2">
+        <v>400</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>17.54281466874043</v>
+      </c>
+      <c r="D20" s="2">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.26077677832041979</v>
+      </c>
+      <c r="I20" s="2">
+        <v>390</v>
+      </c>
+      <c r="J20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14.61225611646266</v>
+      </c>
+      <c r="D21" s="2">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.4716587920454024</v>
+      </c>
+      <c r="I21" s="2">
+        <v>140</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
